--- a/docs/棋盘数据结构.xlsx
+++ b/docs/棋盘数据结构.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\高铭\坚果云\硕士\点格棋\Dots-and-Boxes\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\高铭\坚果云\硕士\点格棋\Dots-and-Boxes\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{82DED242-2218-4090-B61A-87A186B247E0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,7 +264,34 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -599,12 +628,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1104,6 +1131,410 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C3:M3 D2 D4:D12 C11 E11:M11 C5 E5:M5 C7 E7:M7 C9 E9:M9 L2 L4 L6 L8 L10 L12 J2 J4 J6 J8 J10 J12 H2 H4 H6 H8 H10 H12 F2 F4 F6 F8 F10 F12">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:M3 D2 D4:D12 C11 E11:M11 C5 E5:M5 C7 E7:M7 C9 E9:M9 L2 L4 L6 L8 L10 L12 J2 J4 J6 J8 J10 J12 H2 H4 H6 H8 H10 H12 F2 F4 F6 F8 F10 F12">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2 E2 G2 I2 K2 M2 M4 K4 I4 G4 E4 C4 C6 E6 G6 I6 K6 M6 M8 K8 I8 G8 E8 C8 C10 E10 G10 I10 K10 M10 M12 K12 I12 G12 E12 C12">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3448BF0C-98F1-4B87-A563-448444CDA43E}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="1.875" customWidth="1"/>
+    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="5" max="5" width="1.875" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="7" width="1.875" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="9" max="9" width="1.875" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
+    <col min="11" max="11" width="1.875" customWidth="1"/>
+    <col min="12" max="12" width="5" customWidth="1"/>
+    <col min="13" max="13" width="1.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="9">
+        <v>-1</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="10">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="10">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="10">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="10">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="10">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="10">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="10">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="10">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="10">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="12">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="12">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="12">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
@@ -1156,6 +1587,5 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>